--- a/Data Source/GL Transaction.xlsx
+++ b/Data Source/GL Transaction.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0A72BF07-9ABB-4080-98E9-C2EA073CC588}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C87DA78A-C2CE-41DA-8C28-64A78D35DA40}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60030" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>44140</v>
+        <v>40487</v>
       </c>
       <c r="H2" s="1">
         <v>5000</v>
@@ -500,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2">
-        <v>44140</v>
+        <v>40487</v>
       </c>
       <c r="H3" s="1">
         <v>1000</v>
@@ -529,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="2">
-        <v>44140</v>
+        <v>40487</v>
       </c>
       <c r="H4" s="1">
         <v>600</v>
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="2">
-        <v>44140</v>
+        <v>40487</v>
       </c>
       <c r="H5" s="1">
         <v>400</v>

--- a/Data Source/GL Transaction.xlsx
+++ b/Data Source/GL Transaction.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C87DA78A-C2CE-41DA-8C28-64A78D35DA40}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2726F2EA-B274-407A-85D5-9AD530C77EF9}"/>
   <bookViews>
-    <workbookView xWindow="60030" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Project</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>8JACK1</t>
+  </si>
+  <si>
+    <t>77PEDRO</t>
+  </si>
+  <si>
+    <t>99ALI</t>
   </si>
 </sst>
 </file>
@@ -101,12 +107,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,10 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,119 +481,351 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1345006</v>
       </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
-        <v>40487</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="3">
+        <v>40487</v>
+      </c>
+      <c r="H2" s="2">
         <v>5000</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1345006</v>
       </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1105</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
-        <v>40487</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="3">
+        <v>40487</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1345006</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>6000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2">
-        <v>40487</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="3">
+        <v>40487</v>
+      </c>
+      <c r="H4" s="2">
         <v>600</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1345006</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>6000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
-        <v>40487</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="3">
+        <v>40487</v>
+      </c>
+      <c r="H5" s="2">
         <v>400</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>40487</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6000</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1105</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>40487</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
+        <v>40487</v>
+      </c>
+      <c r="H8" s="4">
+        <v>300</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5">
+        <v>40487</v>
+      </c>
+      <c r="H9" s="4">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>1345008</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7">
+        <v>40487</v>
+      </c>
+      <c r="H10" s="6">
+        <v>600</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1345008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1105</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7">
+        <v>40487</v>
+      </c>
+      <c r="H11" s="6">
+        <v>500</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1345008</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7">
+        <v>40487</v>
+      </c>
+      <c r="H12" s="6">
+        <v>400</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1345008</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7">
+        <v>40487</v>
+      </c>
+      <c r="H13" s="6">
+        <v>400</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
